--- a/Auswertung_6.xlsx
+++ b/Auswertung_6.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>t(s)</t>
   </si>
@@ -396,1756 +396,3064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.94341161330054202</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.2253160468630999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>3.3333333333333201E-2</v>
       </c>
       <c r="B3" s="1">
         <v>0.94374172635303699</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="1">
+        <v>3.3333333333333201E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.3096304721238799E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
       <c r="B4" s="1">
         <v>0.94430640273605704</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.7586430551977799E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>0.1</v>
       </c>
       <c r="B5" s="1">
         <v>0.94451459249786796</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.1864137977151099E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>0.133333333333333</v>
       </c>
       <c r="B6" s="1">
         <v>0.94498768114415399</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.6188383834029902E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>0.16666666666666599</v>
       </c>
       <c r="B7" s="1">
         <v>0.94521381804188898</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.9449805269546E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>0.2</v>
       </c>
       <c r="B8" s="1">
         <v>0.945729930190364</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.3443885996345196E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>0.233333333333333</v>
       </c>
       <c r="B9" s="1">
         <v>0.94604388095615399</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9.7317256080255501E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>0.266666666666667</v>
       </c>
       <c r="B10" s="1">
         <v>0.94662674745485997</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.111206763310607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>0.3</v>
       </c>
       <c r="B11" s="1">
         <v>0.946818029514778</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.12454530070344499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>0.33333333333333298</v>
       </c>
       <c r="B12" s="1">
         <v>0.94700651700411198</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.13783620301011601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>0.36666666666666597</v>
       </c>
       <c r="B13" s="1">
         <v>0.94771992853067899</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1">
+        <v>0.36666666666666597</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.15117022371769001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>0.4</v>
       </c>
       <c r="B14" s="1">
         <v>0.94799718553249201</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.16447476108346601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>0.43333333333333302</v>
       </c>
       <c r="B15" s="1">
         <v>0.94837993856582803</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.17774756894803401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>0.46666666666666601</v>
       </c>
       <c r="B16" s="1">
         <v>0.948876017450066</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.19087328551552199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>0.499999999999999</v>
       </c>
       <c r="B17" s="1">
         <v>0.94946627325428301</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.204042334768647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>0.53333333333333299</v>
       </c>
       <c r="B18" s="1">
         <v>0.94957934756000295</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.21694292593316999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>0.56666666666666599</v>
       </c>
       <c r="B19" s="1">
         <v>0.95004786412014597</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1">
+        <v>0.56666666666666599</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.229964668420019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>0.59999999999999898</v>
       </c>
       <c r="B20" s="1">
         <v>0.95044572405317496</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1">
+        <v>0.59999999999999898</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.24289240740198201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>0.63333333333333297</v>
       </c>
       <c r="B21" s="1">
         <v>0.95075867392358504</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.25563050210487498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>0.66666666666666596</v>
       </c>
       <c r="B22" s="1">
         <v>0.95117751037702902</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.26805873567739402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>0.7</v>
       </c>
       <c r="B23" s="1">
         <v>0.95157765738676103</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.28115249323439301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>0.73333333333333295</v>
       </c>
       <c r="B24" s="1">
         <v>0.952092603460724</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.29321642119278302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>0.76666666666666605</v>
       </c>
       <c r="B25" s="1">
         <v>0.95257005099438696</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.30529580074933499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>0.8</v>
       </c>
       <c r="B26" s="1">
         <v>0.95334449243364106</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.317124044239604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>0.83333333333333304</v>
       </c>
       <c r="B27" s="1">
         <v>0.95374880249587701</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.32918369933286301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>0.86666666666666603</v>
       </c>
       <c r="B28" s="1">
         <v>0.95401551298613596</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.34140852461729598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>0.9</v>
       </c>
       <c r="B29" s="1">
         <v>0.95539421197685004</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.35204259552844003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>0.93333333333333302</v>
       </c>
       <c r="B30" s="1">
         <v>0.95575522913855704</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.36383013691046701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>0.96666666666666601</v>
       </c>
       <c r="B31" s="1">
         <v>0.95568798818602596</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.37656033888392298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>0.956038581357462</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.38854564773294897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>1.0333333333333301</v>
       </c>
       <c r="B33" s="1">
         <v>0.95615501973853201</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.40074570850007801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>1.06666666666666</v>
       </c>
       <c r="B34" s="1">
         <v>0.95653581829239898</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1">
+        <v>1.06666666666666</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.412497243285395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>1.0999999999999901</v>
       </c>
       <c r="B35" s="1">
         <v>0.95676840381777795</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1">
+        <v>1.0999999999999901</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.42425141829719498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>1.13333333333333</v>
       </c>
       <c r="B36" s="1">
         <v>0.95717009459582203</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.43588673652222898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>1.1666666666666601</v>
       </c>
       <c r="B37" s="1">
         <v>0.95776759519363797</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="1">
+        <v>1.1666666666666601</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.447519134494541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>1.2</v>
       </c>
       <c r="B38" s="1">
         <v>0.958131405304115</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.45882736601507201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>1.2333333333333301</v>
       </c>
       <c r="B39" s="1">
         <v>0.95859860315611001</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1">
+        <v>1.2333333333333301</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.47047374624078903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>1.2666666666666599</v>
       </c>
       <c r="B40" s="1">
         <v>0.95886445538022202</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1">
+        <v>1.2666666666666599</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.48171959304748502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>1.3</v>
       </c>
       <c r="B41" s="1">
         <v>0.95940346386026598</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.49300554069114899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>1.3333333333333299</v>
       </c>
       <c r="B42" s="1">
         <v>0.95993986351640803</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.50416714608174096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>1.36666666666666</v>
       </c>
       <c r="B43" s="1">
         <v>0.96048413135815103</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="1">
+        <v>1.36666666666666</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.51548847343256499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>1.4</v>
       </c>
       <c r="B44" s="1">
         <v>0.96102828389509998</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.52638934947924998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>1.43333333333333</v>
       </c>
       <c r="B45" s="1">
         <v>0.96150375816622602</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="1">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.53753333238693002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>1.4666666666666599</v>
       </c>
       <c r="B46" s="1">
         <v>0.961844147975496</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1">
+        <v>1.4666666666666599</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.548238898572185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>1.5</v>
       </c>
       <c r="B47" s="1">
         <v>0.96236088530042896</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.55932226412265396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>1.5333333333333301</v>
       </c>
       <c r="B48" s="1">
         <v>0.96264015998233199</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1">
+        <v>1.5333333333333301</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.57008205556646896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>1.56666666666666</v>
       </c>
       <c r="B49" s="1">
         <v>0.96283622762489995</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1">
+        <v>1.56666666666666</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.580780380250977</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>1.5999999999999901</v>
       </c>
       <c r="B50" s="1">
         <v>0.96330742478746401</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1">
+        <v>1.5999999999999901</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.591487282559644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>1.63333333333333</v>
       </c>
       <c r="B51" s="1">
         <v>0.96396987239982601</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.60229823055166498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>1.6666666666666601</v>
       </c>
       <c r="B52" s="1">
         <v>0.96421920212455903</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1">
+        <v>1.6666666666666601</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.61262242375309695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>1.7</v>
       </c>
       <c r="B53" s="1">
         <v>0.96464559415217099</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.62322928230451702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>1.7333333333333301</v>
       </c>
       <c r="B54" s="1">
         <v>0.96489530152546799</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="1">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.63347220517652503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>1.7666666666666599</v>
       </c>
       <c r="B55" s="1">
         <v>0.96546989126759497</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1">
+        <v>1.7666666666666599</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.64387128358282397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>1.8</v>
       </c>
       <c r="B56" s="1">
         <v>0.96593174498916801</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.654117560718945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>1.8333333333333299</v>
       </c>
       <c r="B57" s="1">
         <v>0.96607427545410895</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1">
+        <v>1.8333333333333299</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.66412892372508403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>1.86666666666666</v>
       </c>
       <c r="B58" s="1">
         <v>0.96650790828561794</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1">
+        <v>1.86666666666666</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.67449208850585896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>1.9</v>
       </c>
       <c r="B59" s="1">
         <v>0.96690412670421</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.68417855812319595</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>1.93333333333333</v>
       </c>
       <c r="B60" s="1">
         <v>0.96714339738224897</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1">
+        <v>1.93333333333333</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.69427987750119002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>1.9666666666666599</v>
       </c>
       <c r="B61" s="1">
         <v>0.967615384910126</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1">
+        <v>1.9666666666666599</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.70420039452039895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>2</v>
       </c>
       <c r="B62" s="1">
         <v>0.96798143039386997</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.71404239148503201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>2.0333333333333301</v>
       </c>
       <c r="B63" s="1">
         <v>0.96839305329270098</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1">
+        <v>2.0333333333333301</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.72415391898990999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>2.0666666666666602</v>
       </c>
       <c r="B64" s="1">
         <v>0.968688520597206</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1">
+        <v>2.0666666666666602</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.73396627464377895</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>2.1</v>
       </c>
       <c r="B65" s="1">
         <v>0.96904629030258704</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.74384581997182297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>2.1333333333333302</v>
       </c>
       <c r="B66" s="1">
         <v>0.96943828824075695</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1">
+        <v>2.1333333333333302</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.75330164126519905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>2.1666666666666599</v>
       </c>
       <c r="B67" s="1">
         <v>0.969736913243188</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1">
+        <v>2.1666666666666599</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.76290243302690997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="B68" s="1">
         <v>0.97002109697952099</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.77257753932384898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>2.2333333333333298</v>
       </c>
       <c r="B69" s="1">
         <v>0.97010464458104695</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1">
+        <v>2.2333333333333298</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.78206293282360995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>2.2666666666666599</v>
       </c>
       <c r="B70" s="1">
         <v>0.97034302644244896</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="1">
+        <v>2.2666666666666599</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.79155599012248001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="B71" s="1">
         <v>0.97042694174991895</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.80116288294683402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>2.3333333333333299</v>
       </c>
       <c r="B72" s="1">
         <v>0.97045917479280797</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="1">
+        <v>2.3333333333333299</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.81081166954413197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>2.36666666666666</v>
       </c>
       <c r="B73" s="1">
         <v>0.97043874720135204</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="1">
+        <v>2.36666666666666</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.82054490403602898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>2.4</v>
       </c>
       <c r="B74" s="1">
         <v>0.97042075162013197</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.83011499008864997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>2.43333333333333</v>
       </c>
       <c r="B75" s="1">
         <v>0.97033501398939004</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="1">
+        <v>2.43333333333333</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.83990305951688504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>2.4666666666666601</v>
       </c>
       <c r="B76" s="1">
         <v>0.96988990566039601</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="1">
+        <v>2.4666666666666601</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.84965953836172703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>2.5</v>
       </c>
       <c r="B77" s="1">
         <v>0.96925836065351401</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.85966892607683298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>2.5333333333333301</v>
       </c>
       <c r="B78" s="1">
         <v>0.97104684103043903</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="1">
+        <v>2.5333333333333301</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.86737458654516097</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>2.5666666666666602</v>
       </c>
       <c r="B79" s="1">
         <v>0.97552548544713003</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="1">
+        <v>2.5666666666666602</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.87164797855982001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>2.6</v>
       </c>
       <c r="B80" s="1">
         <v>0.97972752243402905</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.87626661045865095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>2.6333333333333302</v>
       </c>
       <c r="B81" s="1">
         <v>0.98416882668108097</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="1">
+        <v>2.6333333333333302</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.88108801002621195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>2.6666666666666599</v>
       </c>
       <c r="B82" s="1">
         <v>0.98842562434642101</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="1">
+        <v>2.6666666666666599</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.885314053574905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>2.7</v>
       </c>
       <c r="B83" s="1">
         <v>0.99298288950808</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.88968563801420997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>2.7333333333333298</v>
       </c>
       <c r="B84" s="1">
         <v>0.99753148517651302</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="1">
+        <v>2.7333333333333298</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.89396891048006699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>2.7666666666666599</v>
       </c>
       <c r="B85" s="1">
         <v>1.00169995502148</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="1">
+        <v>2.7666666666666599</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.898335619682882</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>2.8</v>
       </c>
       <c r="B86" s="1">
         <v>1.0060126772432501</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.90236104495750702</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>2.8333333333333299</v>
       </c>
       <c r="B87" s="1">
         <v>1.0101984631662</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="1">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.90663732131540997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>2.86666666666666</v>
       </c>
       <c r="B88" s="1">
         <v>1.01444802546372</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="1">
+        <v>2.86666666666666</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.91080441275131796</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>2.9</v>
       </c>
       <c r="B89" s="1">
         <v>1.0188509491153099</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.91534560779808705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>2.93333333333333</v>
       </c>
       <c r="B90" s="1">
         <v>1.0232171494245299</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="1">
+        <v>2.93333333333333</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.91936151504314101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>2.9666666666666601</v>
       </c>
       <c r="B91" s="1">
         <v>1.02729052850026</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="1">
+        <v>2.9666666666666601</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.92368084510792703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>3</v>
       </c>
       <c r="B92" s="1">
         <v>1.0315571489573501</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.92791460766823297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>3.0333333333333301</v>
       </c>
       <c r="B93" s="1">
         <v>1.0354712433987101</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="1">
+        <v>3.0333333333333301</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.93199170408982701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>3.0666666666666602</v>
       </c>
       <c r="B94" s="1">
         <v>1.03966338908105</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="1">
+        <v>3.0666666666666602</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.93595639499998995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>3.1</v>
       </c>
       <c r="B95" s="1">
         <v>1.0441584736728799</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.94023960794649097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>3.1333333333333302</v>
       </c>
       <c r="B96" s="1">
         <v>1.04813017926824</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" s="1">
+        <v>3.1333333333333302</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.94392968351586903</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>3.1666666666666599</v>
       </c>
       <c r="B97" s="1">
         <v>1.0520409158869199</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="1">
+        <v>3.1666666666666599</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.94810653406295997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>3.2</v>
       </c>
       <c r="B98" s="1">
         <v>1.05622551359427</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.95212980056241703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>3.2333333333333298</v>
       </c>
       <c r="B99" s="1">
         <v>1.0602448438285701</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" s="1">
+        <v>3.2333333333333298</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.95617693682877203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>3.2666666666666599</v>
       </c>
       <c r="B100" s="1">
         <v>1.0640860794338201</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" s="1">
+        <v>3.2666666666666599</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.96011235734089895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>3.3</v>
       </c>
       <c r="B101" s="1">
         <v>1.0679491435129</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.96412601539980103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>3.3333333333333299</v>
       </c>
       <c r="B102" s="1">
         <v>1.0718801423152899</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" s="1">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.96794702013084399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>3.36666666666666</v>
       </c>
       <c r="B103" s="1">
         <v>1.0758079239646601</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" s="1">
+        <v>3.36666666666666</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.97200480931761601</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>3.4</v>
       </c>
       <c r="B104" s="1">
         <v>1.0796417092906001</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.97580849630404498</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>3.43333333333333</v>
       </c>
       <c r="B105" s="1">
         <v>1.08337730290751</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" s="1">
+        <v>3.43333333333333</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.97950173720822897</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>3.4666666666666601</v>
       </c>
       <c r="B106" s="1">
         <v>1.0873318299441901</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" s="1">
+        <v>3.4666666666666601</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.98338581659885604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>3.5</v>
       </c>
       <c r="B107" s="1">
         <v>1.0911376690975301</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.98709575830098295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>3.5333333333333301</v>
       </c>
       <c r="B108" s="1">
         <v>1.09504499780567</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" s="1">
+        <v>3.5333333333333301</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.99108735253317004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>3.5666666666666602</v>
       </c>
       <c r="B109" s="1">
         <v>1.0988783122194401</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" s="1">
+        <v>3.5666666666666602</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.99480125910279504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>3.6</v>
       </c>
       <c r="B110" s="1">
         <v>1.10249253798827</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.99854096319457297</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>3.6333333333333302</v>
       </c>
       <c r="B111" s="1">
         <v>1.10628472836823</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" s="1">
+        <v>3.6333333333333302</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1.0021320112426799</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>3.6666666666666599</v>
       </c>
       <c r="B112" s="1">
         <v>1.1098719337098999</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" s="1">
+        <v>3.6666666666666599</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1.00579660914817</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>3.7</v>
       </c>
       <c r="B113" s="1">
         <v>1.1136986015167301</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1.0094233806669699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>3.7333333333333298</v>
       </c>
       <c r="B114" s="1">
         <v>1.1174807300084899</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" s="1">
+        <v>3.7333333333333298</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1.0133681081519099</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>3.7666666666666599</v>
       </c>
       <c r="B115" s="1">
         <v>1.1208261886870099</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" s="1">
+        <v>3.7666666666666599</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1.0167250754313299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>3.8</v>
       </c>
       <c r="B116" s="1">
         <v>1.12483081819806</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1.0202620613525399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>3.8333333333333299</v>
       </c>
       <c r="B117" s="1">
         <v>1.1283178329957899</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" s="1">
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1.02391186911135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>3.86666666666666</v>
       </c>
       <c r="B118" s="1">
         <v>1.13181855641281</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" s="1">
+        <v>3.86666666666666</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1.0272765014141301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>3.9</v>
       </c>
       <c r="B119" s="1">
         <v>1.1351858118714599</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1.0307508534670899</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>3.93333333333333</v>
       </c>
       <c r="B120" s="1">
         <v>1.1387268880197301</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" s="1">
+        <v>3.93333333333333</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1.03445943736535</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>3.9666666666666601</v>
       </c>
       <c r="B121" s="1">
         <v>1.1423731940002699</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" s="1">
+        <v>3.9666666666666601</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1.0379173676415401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>4</v>
       </c>
       <c r="B122" s="1">
         <v>1.14587830029236</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1.04122435770141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>4.0333333333333297</v>
       </c>
       <c r="B123" s="1">
         <v>1.1490191768439</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" s="1">
+        <v>4.0333333333333297</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1.0444945552493401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>4.0666666666666602</v>
       </c>
       <c r="B124" s="1">
         <v>1.1522850278440699</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" s="1">
+        <v>4.0666666666666602</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1.0476615809238801</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="B125" s="1">
         <v>1.15562072836101</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1.05146336899691</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>4.1333333333333302</v>
       </c>
       <c r="B126" s="1">
         <v>1.1590265231799399</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" s="1">
+        <v>4.1333333333333302</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1.0546144816835801</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>4.1666666666666599</v>
       </c>
       <c r="B127" s="1">
         <v>1.16220812905184</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" s="1">
+        <v>4.1666666666666599</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1.05804442057634</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>4.2</v>
       </c>
       <c r="B128" s="1">
         <v>1.1654529750168501</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1.06119755561489</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>4.2333333333333298</v>
       </c>
       <c r="B129" s="1">
         <v>1.1687961346707501</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" s="1">
+        <v>4.2333333333333298</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1.06434434221809</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>4.2666666666666604</v>
       </c>
       <c r="B130" s="1">
         <v>1.17209046614836</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130" s="1">
+        <v>4.2666666666666604</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1.0679137463606201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>4.3</v>
       </c>
       <c r="B131" s="1">
         <v>1.1751821532801201</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1.07091428449107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>4.3333333333333304</v>
       </c>
       <c r="B132" s="1">
         <v>1.17836834163628</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132" s="1">
+        <v>4.3333333333333304</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1.0741384586315701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>4.36666666666666</v>
       </c>
       <c r="B133" s="1">
         <v>1.1814770147603999</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133" s="1">
+        <v>4.36666666666666</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1.07731333678507</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="B134" s="1">
         <v>1.1843461958733299</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D134" s="1">
+        <v>1.08019732887549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>4.43333333333333</v>
       </c>
       <c r="B135" s="1">
         <v>1.1875655224252699</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" s="1">
+        <v>4.43333333333333</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1.08344161594993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>4.4666666666666597</v>
       </c>
       <c r="B136" s="1">
         <v>1.19050185880915</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136" s="1">
+        <v>4.4666666666666597</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1.0864246568685201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>4.5</v>
       </c>
       <c r="B137" s="1">
         <v>1.1938788097172199</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1.08960017871026</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>4.5333333333333297</v>
       </c>
       <c r="B138" s="1">
         <v>1.1964133845198499</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138" s="1">
+        <v>4.5333333333333297</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1.09224431483002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>4.5666666666666602</v>
       </c>
       <c r="B139" s="1">
         <v>1.1998177017388501</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139" s="1">
+        <v>4.5666666666666602</v>
+      </c>
+      <c r="D139" s="1">
+        <v>1.0955033698365699</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="B140" s="1">
         <v>1.2024020357791201</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1.09834901188517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>4.6333333333333302</v>
       </c>
       <c r="B141" s="1">
         <v>1.20548083172925</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141" s="1">
+        <v>4.6333333333333302</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1.1012294798095701</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>4.6666666666666599</v>
       </c>
       <c r="B142" s="1">
         <v>1.2086154265362901</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142" s="1">
+        <v>4.6666666666666599</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1.10426358641593</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>4.7</v>
       </c>
       <c r="B143" s="1">
         <v>1.2112885358705801</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1.1070455058890301</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>4.7333333333333298</v>
       </c>
       <c r="B144" s="1">
         <v>1.21441281945408</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144" s="1">
+        <v>4.7333333333333298</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1.11001599721905</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>4.7666666666666604</v>
       </c>
       <c r="B145" s="1">
         <v>1.21719098772361</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145" s="1">
+        <v>4.7666666666666604</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1.1128358756261301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>4.8</v>
       </c>
       <c r="B146" s="1">
         <v>1.21992441050719</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1.1154478951907001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>4.8333333333333304</v>
       </c>
       <c r="B147" s="1">
         <v>1.22289340497639</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147" s="1">
+        <v>4.8333333333333304</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1.1184334233836799</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>4.86666666666666</v>
       </c>
       <c r="B148" s="1">
         <v>1.22562250215357</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148" s="1">
+        <v>4.86666666666666</v>
+      </c>
+      <c r="D148" s="1">
+        <v>1.1209973834559499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="B149" s="1">
         <v>1.2283855577242999</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1.1237544518263001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>4.93333333333333</v>
       </c>
       <c r="B150" s="1">
         <v>1.2307987967364</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150" s="1">
+        <v>4.93333333333333</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1.1263989676983499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>4.9666666666666597</v>
       </c>
       <c r="B151" s="1">
         <v>1.2338693347262999</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151" s="1">
+        <v>4.9666666666666597</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1.12927769026297</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>5</v>
       </c>
       <c r="B152" s="1">
         <v>1.2364717073302001</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152" s="1">
+        <v>5</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1.1319546469367301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>5.0333333333333297</v>
       </c>
       <c r="B153" s="1">
         <v>1.2389193126167299</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153" s="1">
+        <v>5.0333333333333297</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1.1347034777459599</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>5.0666666666666602</v>
       </c>
       <c r="B154" s="1">
         <v>1.2415857492090601</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154" s="1">
+        <v>5.0666666666666602</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1.13702882875102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="B155" s="1">
         <v>1.2442723782604701</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1.13968024621723</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>5.1333333333333302</v>
       </c>
       <c r="B156" s="1">
         <v>1.2469017119039001</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156" s="1">
+        <v>5.1333333333333302</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1.1421196208714299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>5.1666666666666599</v>
       </c>
       <c r="B157" s="1">
         <v>1.24938641714664</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157" s="1">
+        <v>5.1666666666666599</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1.1446597182799501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>5.2</v>
       </c>
       <c r="B158" s="1">
         <v>1.25202434635257</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1.1472512518888001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>5.2333333333333298</v>
       </c>
       <c r="B159" s="1">
         <v>1.25437558780665</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159" s="1">
+        <v>5.2333333333333298</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1.1496412039731601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>5.2666666666666604</v>
       </c>
       <c r="B160" s="1">
         <v>1.2568626233028899</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160" s="1">
+        <v>5.2666666666666604</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1.1520989727811899</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>5.3</v>
       </c>
       <c r="B161" s="1">
         <v>1.25932649408138</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1.1546047222234399</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>5.3333333333333304</v>
       </c>
       <c r="B162" s="1">
         <v>1.2614982162775601</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162" s="1">
+        <v>5.3333333333333304</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1.15709537788077</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>5.36666666666666</v>
       </c>
       <c r="B163" s="1">
         <v>1.2641520631160801</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163" s="1">
+        <v>5.36666666666666</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1.1595479746224799</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>5.4</v>
       </c>
       <c r="B164" s="1">
         <v>1.26664444823731</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1.1619479015362</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>5.43333333333333</v>
       </c>
       <c r="B165" s="1">
         <v>1.2688661319186101</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165" s="1">
+        <v>5.43333333333333</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1.16397603085614</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>5.4666666666666597</v>
       </c>
       <c r="B166" s="1">
         <v>1.27110703254896</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166" s="1">
+        <v>5.4666666666666597</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1.1664498730885799</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>5.5</v>
       </c>
       <c r="B167" s="1">
         <v>1.2734113855748701</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1.1686814967699899</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>5.5333333333333297</v>
       </c>
       <c r="B168" s="1">
         <v>1.2757593495487101</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168" s="1">
+        <v>5.5333333333333297</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1.17101176907822</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>5.5666666666666602</v>
       </c>
       <c r="B169" s="1">
         <v>1.2778284492242999</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169" s="1">
+        <v>5.5666666666666602</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1.17340775378924</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>5.6</v>
       </c>
       <c r="B170" s="1">
         <v>1.28010214468645</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1.1755163649064999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>5.6333333333333302</v>
       </c>
       <c r="B171" s="1">
         <v>1.28236286828266</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171" s="1">
+        <v>5.6333333333333302</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1.1777727891265199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>5.6666666666666599</v>
       </c>
       <c r="B172" s="1">
         <v>1.2844643559965301</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172" s="1">
+        <v>5.6666666666666599</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1.17996500240878</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>5.7</v>
       </c>
       <c r="B173" s="1">
         <v>1.28669657702846</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1.18213061790743</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>5.7333333333333298</v>
       </c>
       <c r="B174" s="1">
         <v>1.2888862934824901</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174" s="1">
+        <v>5.7333333333333298</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1.18419378796712</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>5.7666666666666604</v>
       </c>
       <c r="B175" s="1">
         <v>1.2907356138641599</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175" s="1">
+        <v>5.7666666666666604</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1.18621487993532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>5.8</v>
       </c>
       <c r="B176" s="1">
         <v>1.29290604965669</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1.1882793646049701</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>5.8333333333333304</v>
       </c>
       <c r="B177" s="1">
         <v>1.2948950389596601</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177" s="1">
+        <v>5.8333333333333304</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1.1902293282644201</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>5.86666666666666</v>
       </c>
       <c r="B178" s="1">
         <v>1.29693386939877</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178" s="1">
+        <v>5.86666666666666</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1.19238152488113</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>5.9</v>
       </c>
       <c r="B179" s="1">
         <v>1.29911619815989</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1.1946042425848999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>5.93333333333333</v>
       </c>
       <c r="B180" s="1">
         <v>1.30116162946522</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180" s="1">
+        <v>5.93333333333333</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1.1965011247148301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>5.9666666666666597</v>
       </c>
       <c r="B181" s="1">
         <v>1.3032119683813801</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181" s="1">
+        <v>5.9666666666666597</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1.1985557101861499</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>6</v>
       </c>
       <c r="B182" s="1">
         <v>1.3050300837969799</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182" s="1">
+        <v>6</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1.20029475179477</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>6.0333333333333297</v>
       </c>
       <c r="B183" s="1">
         <v>1.3069210588353299</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183" s="1">
+        <v>6.0333333333333297</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1.2023258414661899</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>6.0666666666666602</v>
       </c>
       <c r="B184" s="1">
         <v>1.3087941381060999</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184" s="1">
+        <v>6.0666666666666602</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1.20430652875158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>6.1</v>
       </c>
       <c r="B185" s="1">
         <v>1.31050200788898</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1.2058289927300201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>6.1333333333333302</v>
       </c>
       <c r="B186" s="1">
         <v>1.31256631737136</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186" s="1">
+        <v>6.1333333333333302</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1.2079663209028999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>6.1666666666666599</v>
       </c>
       <c r="B187" s="1">
         <v>1.31416584798167</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187" s="1">
+        <v>6.1666666666666599</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1.2096318832734201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>6.2</v>
       </c>
       <c r="B188" s="1">
         <v>1.31605944536838</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1.2114727824374201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>6.2333333333333298</v>
       </c>
       <c r="B189" s="1">
         <v>1.31808655794422</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189" s="1">
+        <v>6.2333333333333298</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1.21315182229249</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>6.2666666666666604</v>
       </c>
       <c r="B190" s="1">
         <v>1.31973742392238</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190" s="1">
+        <v>6.2666666666666604</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1.21510970639286</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>6.2999999999999901</v>
       </c>
       <c r="B191" s="1">
         <v>1.3214322427213201</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191" s="1">
+        <v>6.2999999999999901</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1.21704309644314</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>6.3333333333333304</v>
       </c>
       <c r="B192" s="1">
         <v>1.3231270360546401</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192" s="1">
+        <v>6.3333333333333304</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1.2184253595704</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>6.36666666666666</v>
       </c>
       <c r="B193" s="1">
         <v>1.32472323197416</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193" s="1">
+        <v>6.36666666666666</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1.2201280140105299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>6.4</v>
       </c>
       <c r="B194" s="1">
         <v>1.3266277672881099</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1.2218654278949099</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>6.43333333333333</v>
       </c>
       <c r="B195" s="1">
         <v>1.32819462458454</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195" s="1">
+        <v>6.43333333333333</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1.2234622672414399</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>6.4666666666666597</v>
       </c>
       <c r="B196" s="1">
         <v>1.3295848621831801</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196" s="1">
+        <v>6.4666666666666597</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1.22503788981924</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>6.5</v>
       </c>
       <c r="B197" s="1">
         <v>1.3314118013913001</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1.22689850709811</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>6.5333333333333297</v>
       </c>
       <c r="B198" s="1">
         <v>1.33291025192079</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198" s="1">
+        <v>6.5333333333333297</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1.22824953662707</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>6.5666666666666602</v>
       </c>
       <c r="B199" s="1">
         <v>1.33455053670929</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199" s="1">
+        <v>6.5666666666666602</v>
+      </c>
+      <c r="D199" s="1">
+        <v>1.2298213906331501</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>6.6</v>
       </c>
       <c r="B200" s="1">
         <v>1.33607320541694</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1.2316138029341499</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>6.6333333333333302</v>
       </c>
       <c r="B201" s="1">
         <v>1.3379320259996199</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201" s="1">
+        <v>6.6333333333333302</v>
+      </c>
+      <c r="D201" s="1">
+        <v>1.2334238606999599</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>6.6666666666666599</v>
       </c>
       <c r="B202" s="1">
         <v>1.33918576414832</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202" s="1">
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1.23452772218434</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>6.6999999999999904</v>
       </c>
       <c r="B203" s="1">
         <v>1.34060790942205</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203" s="1">
+        <v>6.6999999999999904</v>
+      </c>
+      <c r="D203" s="1">
+        <v>1.23602867227229</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>6.7333333333333298</v>
       </c>
       <c r="B204" s="1">
         <v>1.34218796745817</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204" s="1">
+        <v>6.7333333333333298</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1.2376470640633299</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>6.7666666666666604</v>
       </c>
       <c r="B205" s="1">
         <v>1.3438114467812201</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="C205" s="1">
+        <v>6.7666666666666604</v>
+      </c>
+      <c r="D205" s="1">
+        <v>1.2393511221411699</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>6.7999999999999901</v>
       </c>
       <c r="B206" s="1">
         <v>1.34543062404092</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="C206" s="1">
+        <v>6.7999999999999901</v>
+      </c>
+      <c r="D206" s="1">
+        <v>1.2408796486379601</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>6.8333333333333304</v>
       </c>
       <c r="B207" s="1">
         <v>1.3469085292251901</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="C207" s="1">
+        <v>6.8333333333333304</v>
+      </c>
+      <c r="D207" s="1">
+        <v>1.2421659357895101</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>6.86666666666666</v>
       </c>
       <c r="B208" s="1">
         <v>1.3478782241164</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208" s="1">
+        <v>6.86666666666666</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1.24359978160357</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>6.9</v>
       </c>
       <c r="B209" s="1">
         <v>1.34951768043862</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="D209" s="1">
+        <v>1.2449743334902801</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>6.93333333333333</v>
       </c>
       <c r="B210" s="1">
         <v>1.3510300098586701</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210" s="1">
+        <v>6.93333333333333</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1.2463395976465601</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>6.9666666666666597</v>
       </c>
       <c r="B211" s="1">
         <v>1.35211187669615</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211" s="1">
+        <v>6.9666666666666597</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1.2477345543718801</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>7</v>
       </c>
       <c r="B212" s="1">
         <v>1.3538775314144</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212" s="1">
+        <v>7</v>
+      </c>
+      <c r="D212" s="1">
+        <v>1.2492311883380001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>7.0333333333333297</v>
       </c>
       <c r="B213" s="1">
         <v>1.3551441847250301</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213" s="1">
+        <v>7.0333333333333297</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1.2504887069447399</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>7.0666666666666602</v>
       </c>
       <c r="B214" s="1">
         <v>1.35630377987211</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214" s="1">
+        <v>7.0666666666666602</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1.25169937187728</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>7.1</v>
       </c>
       <c r="B215" s="1">
         <v>1.35727943377481</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1.25272082809494</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>7.1333333333333302</v>
       </c>
       <c r="B216" s="1">
         <v>1.35946775311206</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216" s="1">
+        <v>7.1333333333333302</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1.2547533722094699</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>7.1666666666666599</v>
       </c>
       <c r="B217" s="1">
         <v>1.36081338710658</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217" s="1">
+        <v>7.1666666666666599</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1.25608945509797</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>7.1999999999999904</v>
       </c>
       <c r="B218" s="1">
         <v>1.3634070785316199</v>
+      </c>
+      <c r="C218" s="1">
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1.25872055056987</v>
       </c>
     </row>
   </sheetData>
